--- a/原始数据/团队非按揭业绩日报20241219.xlsx
+++ b/原始数据/团队非按揭业绩日报20241219.xlsx
@@ -1,25 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wesle\Desktop\srcb_daily_report\原始数据\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0476C5BA-01A9-4F36-8A20-DE917E1A3AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3795" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -27,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,213 +29,159 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="44">
   <si>
+    <t>零贷专营团队月度指标完成日报1219</t>
+  </si>
+  <si>
     <t>团队名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>二手受理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>鑫e贷放款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>鑫e贷总授信（A/B款）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>鑫e贷授信-B款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>财富转介户数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>月度目标
 达成率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>月度目标
 达成率系数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>指标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>昨日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>本月</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>完成率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>报表完成数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>自然流量完成数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>线下贷款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>调整数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>外拓双算数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>自然流量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>报表数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>外拓数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>按揭一队</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>许闻多</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>宋丽凤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>孙仰阳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>瞿逸程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>顾伟丽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>合计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>按揭二队</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>马越骋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>陈名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>万华</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>茅敏艳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>钱潇伟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>非按揭队</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>杨小东</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>王美燕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>徐君</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>李亚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>杜星瑶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>曹倩云</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>黄旭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>零贷专营团队月度指标完成日报1219</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="8">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="179" formatCode="0.000_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -251,7 +190,6 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -259,14 +197,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -274,17 +210,166 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,18 +378,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -352,6 +623,404 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -393,6 +1062,47 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -406,146 +1116,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -554,69 +1124,6 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -633,6 +1140,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
@@ -649,168 +1206,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="double">
         <color auto="1"/>
       </bottom>
@@ -819,60 +1214,6 @@
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
@@ -881,378 +1222,570 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color auto="1"/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="51" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="3">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
@@ -1260,7 +1793,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
@@ -1268,35 +1801,16 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
         <i val="0"/>
         <color rgb="FF00B050"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="0_ "/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1345,7 +1859,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1380,7 +1894,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1554,227 +2068,222 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AI24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="AF22" sqref="AF20:AF22"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="11" max="11" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.2666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="68"/>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="68"/>
-      <c r="AI1" s="68"/>
+    <row r="1" ht="23.25" customHeight="1" spans="1:35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="71" t="s">
+    <row r="2" ht="17.25" customHeight="1" spans="1:35">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="69" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="69" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="77" t="s">
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Y2" s="78"/>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="78"/>
-      <c r="AC2" s="78"/>
-      <c r="AD2" s="79"/>
-      <c r="AE2" s="78" t="s">
+      <c r="Q2" s="49"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="AF2" s="78"/>
-      <c r="AG2" s="79"/>
-      <c r="AH2" s="79" t="s">
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="71"/>
+      <c r="AE2" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="AI2" s="79" t="s">
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="71"/>
+      <c r="AH2" s="71" t="s">
         <v>8</v>
       </c>
+      <c r="AI2" s="71" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:35" ht="34.15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="70"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4" t="s">
+    <row r="3" ht="36.75" spans="1:35">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="I3" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="J3" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="O3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="Q3" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="V3" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="W3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="8" t="s">
+      <c r="X3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Z3" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA3" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB3" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC3" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q3" s="9" t="s">
+      <c r="AD3" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="AF3" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG3" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH3" s="80"/>
-      <c r="AI3" s="80"/>
+      <c r="AH3" s="77"/>
+      <c r="AI3" s="77"/>
     </row>
-    <row r="4" spans="1:35" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="81" t="s">
-        <v>21</v>
+    <row r="4" ht="16.9" customHeight="1" spans="1:35">
+      <c r="A4" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="13">
         <v>2000</v>
@@ -1800,7 +2309,7 @@
       <c r="J4" s="13">
         <v>63.7</v>
       </c>
-      <c r="K4" s="91">
+      <c r="K4" s="54">
         <v>0</v>
       </c>
       <c r="L4" s="15"/>
@@ -1809,10 +2318,10 @@
         <v>63.7</v>
       </c>
       <c r="O4" s="16">
-        <v>0.42466666666666703</v>
+        <v>0.424666666666667</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="14">
         <v>0</v>
@@ -1820,16 +2329,16 @@
       <c r="R4" s="15">
         <v>4</v>
       </c>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17">
-        <v>0</v>
-      </c>
-      <c r="U4" s="17"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65">
+        <v>0</v>
+      </c>
+      <c r="U4" s="65"/>
       <c r="V4" s="15">
         <v>4</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X4" s="11">
         <v>3</v>
@@ -1840,12 +2349,12 @@
       <c r="Z4" s="15">
         <v>3</v>
       </c>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="73"/>
       <c r="AC4" s="15">
         <v>3</v>
       </c>
-      <c r="AD4" s="19">
+      <c r="AD4" s="74">
         <v>1</v>
       </c>
       <c r="AE4" s="11">
@@ -1854,46 +2363,46 @@
       <c r="AF4" s="14">
         <v>2</v>
       </c>
-      <c r="AG4" s="19">
+      <c r="AG4" s="74">
         <v>1</v>
       </c>
-      <c r="AH4" s="19">
-        <v>0.67628333333333301</v>
-      </c>
-      <c r="AI4" s="85">
-        <v>0.78134465240641704</v>
+      <c r="AH4" s="74">
+        <v>0.676283333333333</v>
+      </c>
+      <c r="AI4" s="78">
+        <v>0.781344652406417</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="16.899999999999999" x14ac:dyDescent="0.4">
-      <c r="A5" s="82"/>
-      <c r="B5" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="22">
+    <row r="5" ht="18" spans="1:35">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="19">
         <v>2000</v>
       </c>
       <c r="D5" s="14">
         <v>0</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="20">
         <v>192.5</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="21">
         <v>2902</v>
       </c>
       <c r="G5" s="16">
-        <v>1.4510000000000001</v>
-      </c>
-      <c r="H5" s="22">
+        <v>1.451</v>
+      </c>
+      <c r="H5" s="19">
         <v>150</v>
       </c>
       <c r="I5" s="14">
         <v>23</v>
       </c>
       <c r="J5" s="13">
-        <v>81.099999999999994</v>
-      </c>
-      <c r="K5" s="91">
+        <v>81.1</v>
+      </c>
+      <c r="K5" s="54">
         <v>10</v>
       </c>
       <c r="L5" s="15"/>
@@ -1901,11 +2410,11 @@
       <c r="N5" s="15">
         <v>91.1</v>
       </c>
-      <c r="O5" s="25">
-        <v>0.60733333333333295</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>23</v>
+      <c r="O5" s="55">
+        <v>0.607333333333333</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="Q5" s="14">
         <v>1</v>
@@ -1913,16 +2422,16 @@
       <c r="R5" s="15">
         <v>1</v>
       </c>
-      <c r="S5" s="26"/>
-      <c r="T5" s="17">
-        <v>0</v>
-      </c>
-      <c r="U5" s="17"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="65">
+        <v>0</v>
+      </c>
+      <c r="U5" s="65"/>
       <c r="V5" s="15">
         <v>1</v>
       </c>
-      <c r="W5" s="21" t="s">
-        <v>23</v>
+      <c r="W5" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="X5" s="11">
         <v>3</v>
@@ -1933,13 +2442,13 @@
       <c r="Z5" s="15">
         <v>1</v>
       </c>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
+      <c r="AA5" s="73"/>
+      <c r="AB5" s="73"/>
       <c r="AC5" s="15">
         <v>1</v>
       </c>
-      <c r="AD5" s="19">
-        <v>0.33333333333333298</v>
+      <c r="AD5" s="74">
+        <v>0.333333333333333</v>
       </c>
       <c r="AE5" s="11">
         <v>2</v>
@@ -1947,54 +2456,54 @@
       <c r="AF5" s="14">
         <v>3</v>
       </c>
-      <c r="AG5" s="19">
+      <c r="AG5" s="74">
         <v>1.5</v>
       </c>
-      <c r="AH5" s="19">
-        <v>0.99480000000000002</v>
-      </c>
-      <c r="AI5" s="85"/>
+      <c r="AH5" s="74">
+        <v>0.9948</v>
+      </c>
+      <c r="AI5" s="78"/>
     </row>
-    <row r="6" spans="1:35" ht="16.899999999999999" x14ac:dyDescent="0.4">
-      <c r="A6" s="82"/>
-      <c r="B6" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="22">
+    <row r="6" ht="18" spans="1:35">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="19">
         <v>2000</v>
       </c>
       <c r="D6" s="14">
         <v>0</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24">
+      <c r="E6" s="20"/>
+      <c r="F6" s="21">
         <v>3699</v>
       </c>
       <c r="G6" s="16">
-        <v>1.8494999999999999</v>
-      </c>
-      <c r="H6" s="22">
+        <v>1.8495</v>
+      </c>
+      <c r="H6" s="19">
         <v>200</v>
       </c>
       <c r="I6" s="14">
         <v>12</v>
       </c>
       <c r="J6" s="13">
-        <v>76.422200000000004</v>
-      </c>
-      <c r="K6" s="91">
+        <v>76.4222</v>
+      </c>
+      <c r="K6" s="54">
         <v>13.8</v>
       </c>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
       <c r="N6" s="15">
-        <v>90.222200000000001</v>
-      </c>
-      <c r="O6" s="25">
-        <v>0.45111099999999998</v>
-      </c>
-      <c r="P6" s="20" t="s">
-        <v>23</v>
+        <v>90.2222</v>
+      </c>
+      <c r="O6" s="55">
+        <v>0.451111</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="Q6" s="14">
         <v>0</v>
@@ -2002,16 +2511,16 @@
       <c r="R6" s="15">
         <v>1</v>
       </c>
-      <c r="S6" s="26"/>
-      <c r="T6" s="17">
-        <v>0</v>
-      </c>
-      <c r="U6" s="17"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="65">
+        <v>0</v>
+      </c>
+      <c r="U6" s="65"/>
       <c r="V6" s="15">
         <v>1</v>
       </c>
-      <c r="W6" s="21" t="s">
-        <v>23</v>
+      <c r="W6" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="X6" s="11">
         <v>5</v>
@@ -2022,12 +2531,12 @@
       <c r="Z6" s="15">
         <v>1</v>
       </c>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
+      <c r="AA6" s="73"/>
+      <c r="AB6" s="73"/>
       <c r="AC6" s="15">
         <v>1</v>
       </c>
-      <c r="AD6" s="19">
+      <c r="AD6" s="74">
         <v>0.2</v>
       </c>
       <c r="AE6" s="11">
@@ -2036,35 +2545,35 @@
       <c r="AF6" s="14">
         <v>4</v>
       </c>
-      <c r="AG6" s="19">
-        <v>1.3333333333333299</v>
-      </c>
-      <c r="AH6" s="19">
-        <v>0.95022220000000002</v>
-      </c>
-      <c r="AI6" s="85"/>
+      <c r="AG6" s="74">
+        <v>1.33333333333333</v>
+      </c>
+      <c r="AH6" s="74">
+        <v>0.9502222</v>
+      </c>
+      <c r="AI6" s="78"/>
     </row>
-    <row r="7" spans="1:35" ht="16.899999999999999" x14ac:dyDescent="0.4">
-      <c r="A7" s="83"/>
-      <c r="B7" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="22">
+    <row r="7" ht="17.25" spans="1:35">
+      <c r="A7" s="22"/>
+      <c r="B7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="19">
         <v>2000</v>
       </c>
       <c r="D7" s="14">
         <v>0</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="20">
         <v>209</v>
       </c>
       <c r="F7" s="14">
         <v>1108</v>
       </c>
       <c r="G7" s="16">
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="H7" s="22">
+        <v>0.554</v>
+      </c>
+      <c r="H7" s="19">
         <v>150</v>
       </c>
       <c r="I7" s="14">
@@ -2073,7 +2582,7 @@
       <c r="J7" s="13">
         <v>0</v>
       </c>
-      <c r="K7" s="91">
+      <c r="K7" s="54">
         <v>0</v>
       </c>
       <c r="L7" s="15"/>
@@ -2081,11 +2590,11 @@
       <c r="N7" s="15">
         <v>0</v>
       </c>
-      <c r="O7" s="25">
-        <v>0</v>
-      </c>
-      <c r="P7" s="20" t="s">
-        <v>23</v>
+      <c r="O7" s="55">
+        <v>0</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="Q7" s="14">
         <v>0</v>
@@ -2093,16 +2602,16 @@
       <c r="R7" s="15">
         <v>0</v>
       </c>
-      <c r="S7" s="26"/>
-      <c r="T7" s="17">
-        <v>0</v>
-      </c>
-      <c r="U7" s="17"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="65">
+        <v>0</v>
+      </c>
+      <c r="U7" s="65"/>
       <c r="V7" s="15">
         <v>0</v>
       </c>
-      <c r="W7" s="21" t="s">
-        <v>23</v>
+      <c r="W7" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="X7" s="11">
         <v>3</v>
@@ -2113,12 +2622,12 @@
       <c r="Z7" s="15">
         <v>0</v>
       </c>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
+      <c r="AA7" s="73"/>
+      <c r="AB7" s="73"/>
       <c r="AC7" s="15">
         <v>0</v>
       </c>
-      <c r="AD7" s="19">
+      <c r="AD7" s="74">
         <v>0</v>
       </c>
       <c r="AE7" s="11">
@@ -2127,29 +2636,29 @@
       <c r="AF7" s="14">
         <v>0</v>
       </c>
-      <c r="AG7" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="19">
-        <v>0.33239999999999997</v>
-      </c>
-      <c r="AI7" s="85"/>
+      <c r="AG7" s="74">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="74">
+        <v>0.3324</v>
+      </c>
+      <c r="AI7" s="78"/>
     </row>
-    <row r="8" spans="1:35" ht="16.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A8" s="83"/>
+    <row r="8" ht="17.25" spans="1:35">
+      <c r="A8" s="22"/>
       <c r="B8" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="13">
         <v>2000</v>
       </c>
       <c r="D8" s="14"/>
-      <c r="E8" s="23"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="14">
         <v>584</v>
       </c>
       <c r="G8" s="16">
-        <v>0.29199999999999998</v>
+        <v>0.292</v>
       </c>
       <c r="H8" s="13">
         <v>150</v>
@@ -2158,18 +2667,18 @@
         <v>0</v>
       </c>
       <c r="J8" s="13">
-        <v>84.525999999999996</v>
-      </c>
-      <c r="K8" s="91">
+        <v>84.526</v>
+      </c>
+      <c r="K8" s="54">
         <v>0</v>
       </c>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
       <c r="N8" s="15">
-        <v>84.525999999999996</v>
-      </c>
-      <c r="O8" s="25">
-        <v>0.56350666666666704</v>
+        <v>84.526</v>
+      </c>
+      <c r="O8" s="55">
+        <v>0.563506666666667</v>
       </c>
       <c r="P8" s="11"/>
       <c r="Q8" s="15">
@@ -2178,16 +2687,16 @@
       <c r="R8" s="15">
         <v>2</v>
       </c>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17">
-        <v>0</v>
-      </c>
-      <c r="U8" s="17"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="65">
+        <v>0</v>
+      </c>
+      <c r="U8" s="65"/>
       <c r="V8" s="15">
         <v>2</v>
       </c>
-      <c r="W8" s="21" t="s">
-        <v>23</v>
+      <c r="W8" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="X8" s="11">
         <v>3</v>
@@ -2198,13 +2707,13 @@
       <c r="Z8" s="15">
         <v>2</v>
       </c>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
+      <c r="AA8" s="73"/>
+      <c r="AB8" s="73"/>
       <c r="AC8" s="15">
         <v>2</v>
       </c>
-      <c r="AD8" s="19">
-        <v>0.66666666666666696</v>
+      <c r="AD8" s="74">
+        <v>0.666666666666667</v>
       </c>
       <c r="AE8" s="11">
         <v>2</v>
@@ -2212,109 +2721,109 @@
       <c r="AF8" s="14">
         <v>0</v>
       </c>
-      <c r="AG8" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="19">
-        <v>0.35456799999999999</v>
-      </c>
-      <c r="AI8" s="85"/>
+      <c r="AG8" s="74">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="74">
+        <v>0.354568</v>
+      </c>
+      <c r="AI8" s="78"/>
     </row>
-    <row r="9" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="84"/>
-      <c r="B9" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="29">
+    <row r="9" ht="18.75" spans="1:35">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="25">
         <v>10000</v>
       </c>
-      <c r="D9" s="30">
-        <v>0</v>
-      </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="32">
+      <c r="D9" s="26">
+        <v>0</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28">
         <v>9597.5</v>
       </c>
-      <c r="G9" s="33">
-        <v>0.95974999999999999</v>
-      </c>
-      <c r="H9" s="29">
+      <c r="G9" s="29">
+        <v>0.95975</v>
+      </c>
+      <c r="H9" s="25">
         <v>800</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="56">
         <v>35</v>
       </c>
       <c r="J9" s="13">
         <v>306</v>
       </c>
-      <c r="K9" s="91">
-        <v>24</v>
-      </c>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="36">
+      <c r="K9" s="54">
+        <v>24</v>
+      </c>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="58">
         <v>330</v>
       </c>
-      <c r="O9" s="33">
-        <v>0.41249999999999998</v>
-      </c>
-      <c r="P9" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q9" s="35">
+      <c r="O9" s="29">
+        <v>0.4125</v>
+      </c>
+      <c r="P9" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="57">
         <v>1</v>
       </c>
       <c r="R9" s="15">
         <v>8</v>
       </c>
-      <c r="S9" s="35"/>
-      <c r="T9" s="17">
-        <v>0</v>
-      </c>
-      <c r="U9" s="35"/>
-      <c r="V9" s="36">
+      <c r="S9" s="57"/>
+      <c r="T9" s="65">
+        <v>0</v>
+      </c>
+      <c r="U9" s="57"/>
+      <c r="V9" s="58">
         <v>8</v>
       </c>
-      <c r="W9" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="X9" s="37">
+      <c r="W9" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="X9" s="59">
         <v>17</v>
       </c>
-      <c r="Y9" s="34">
+      <c r="Y9" s="56">
         <v>1</v>
       </c>
       <c r="Z9" s="15">
         <v>7</v>
       </c>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="36">
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="58">
         <v>7</v>
       </c>
-      <c r="AD9" s="38">
-        <v>0.41176470588235298</v>
-      </c>
-      <c r="AE9" s="37">
+      <c r="AD9" s="75">
+        <v>0.411764705882353</v>
+      </c>
+      <c r="AE9" s="59">
         <v>11</v>
       </c>
-      <c r="AF9" s="34">
+      <c r="AF9" s="56">
         <v>9</v>
       </c>
-      <c r="AG9" s="38">
-        <v>0.81818181818181801</v>
-      </c>
-      <c r="AH9" s="38">
-        <v>0.78134465240641704</v>
-      </c>
-      <c r="AI9" s="86"/>
+      <c r="AG9" s="75">
+        <v>0.818181818181818</v>
+      </c>
+      <c r="AH9" s="75">
+        <v>0.781344652406417</v>
+      </c>
+      <c r="AI9" s="79"/>
     </row>
-    <row r="10" spans="1:35" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="40" t="s">
+    <row r="10" ht="17.25" customHeight="1" spans="1:35">
+      <c r="A10" s="11" t="s">
         <v>30</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>31</v>
       </c>
       <c r="C10" s="13">
         <v>2000</v>
@@ -2325,11 +2834,11 @@
       <c r="E10" s="15">
         <v>32</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="31">
         <v>2485</v>
       </c>
       <c r="G10" s="16">
-        <v>1.2424999999999999</v>
+        <v>1.2425</v>
       </c>
       <c r="H10" s="13">
         <v>150</v>
@@ -2340,7 +2849,7 @@
       <c r="J10" s="13">
         <v>0</v>
       </c>
-      <c r="K10" s="91">
+      <c r="K10" s="54">
         <v>0</v>
       </c>
       <c r="L10" s="15"/>
@@ -2352,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="14">
         <v>0</v>
@@ -2360,16 +2869,16 @@
       <c r="R10" s="15">
         <v>1</v>
       </c>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17">
-        <v>0</v>
-      </c>
-      <c r="U10" s="17"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="65">
+        <v>0</v>
+      </c>
+      <c r="U10" s="65"/>
       <c r="V10" s="15">
         <v>1</v>
       </c>
       <c r="W10" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X10" s="11">
         <v>3</v>
@@ -2380,13 +2889,13 @@
       <c r="Z10" s="15">
         <v>1</v>
       </c>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
+      <c r="AA10" s="73"/>
+      <c r="AB10" s="73"/>
       <c r="AC10" s="15">
         <v>1</v>
       </c>
-      <c r="AD10" s="19">
-        <v>0.33333333333333298</v>
+      <c r="AD10" s="74">
+        <v>0.333333333333333</v>
       </c>
       <c r="AE10" s="11">
         <v>2</v>
@@ -2394,58 +2903,58 @@
       <c r="AF10" s="14">
         <v>0</v>
       </c>
-      <c r="AG10" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="19">
-        <v>0.75333333333333297</v>
-      </c>
-      <c r="AI10" s="85">
-        <v>0.78383666666666696</v>
+      <c r="AG10" s="74">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="74">
+        <v>0.753333333333333</v>
+      </c>
+      <c r="AI10" s="78">
+        <v>0.783836666666667</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="16.899999999999999" x14ac:dyDescent="0.4">
-      <c r="A11" s="82"/>
-      <c r="B11" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="22">
+    <row r="11" ht="18" spans="1:35">
+      <c r="A11" s="17"/>
+      <c r="B11" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="19">
         <v>2000</v>
       </c>
       <c r="D11" s="14">
         <v>0</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="20">
         <v>186</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="33">
         <v>2956</v>
       </c>
       <c r="G11" s="16">
         <v>1.478</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="19">
         <v>150</v>
       </c>
       <c r="I11" s="11">
         <v>10</v>
       </c>
       <c r="J11" s="13">
-        <v>44.042499999999997</v>
-      </c>
-      <c r="K11" s="91">
-        <v>0</v>
-      </c>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
+        <v>44.0425</v>
+      </c>
+      <c r="K11" s="54">
+        <v>0</v>
+      </c>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
       <c r="N11" s="15">
-        <v>44.042499999999997</v>
-      </c>
-      <c r="O11" s="25">
-        <v>0.29361666666666703</v>
-      </c>
-      <c r="P11" s="20" t="s">
-        <v>23</v>
+        <v>44.0425</v>
+      </c>
+      <c r="O11" s="55">
+        <v>0.293616666666667</v>
+      </c>
+      <c r="P11" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="Q11" s="14">
         <v>0</v>
@@ -2453,16 +2962,16 @@
       <c r="R11" s="15">
         <v>2</v>
       </c>
-      <c r="S11" s="26"/>
-      <c r="T11" s="17">
-        <v>0</v>
-      </c>
-      <c r="U11" s="17"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="65">
+        <v>0</v>
+      </c>
+      <c r="U11" s="65"/>
       <c r="V11" s="15">
         <v>2</v>
       </c>
-      <c r="W11" s="21" t="s">
-        <v>23</v>
+      <c r="W11" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="X11" s="11">
         <v>3</v>
@@ -2473,13 +2982,13 @@
       <c r="Z11" s="15">
         <v>2</v>
       </c>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18"/>
+      <c r="AA11" s="73"/>
+      <c r="AB11" s="73"/>
       <c r="AC11" s="15">
         <v>2</v>
       </c>
-      <c r="AD11" s="19">
-        <v>0.66666666666666696</v>
+      <c r="AD11" s="74">
+        <v>0.666666666666667</v>
       </c>
       <c r="AE11" s="11">
         <v>2</v>
@@ -2487,54 +2996,54 @@
       <c r="AF11" s="14">
         <v>0</v>
       </c>
-      <c r="AG11" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="19">
-        <v>0.84538999999999997</v>
-      </c>
-      <c r="AI11" s="85"/>
+      <c r="AG11" s="74">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="74">
+        <v>0.84539</v>
+      </c>
+      <c r="AI11" s="78"/>
     </row>
-    <row r="12" spans="1:35" ht="16.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A12" s="82"/>
-      <c r="B12" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="22">
+    <row r="12" ht="17.25" spans="1:35">
+      <c r="A12" s="17"/>
+      <c r="B12" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="19">
         <v>2000</v>
       </c>
       <c r="D12" s="14">
         <v>0</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="44">
+      <c r="E12" s="20"/>
+      <c r="F12" s="34">
         <v>1340</v>
       </c>
       <c r="G12" s="16">
         <v>0.67</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="19">
         <v>150</v>
       </c>
       <c r="I12" s="14">
         <v>1</v>
       </c>
       <c r="J12" s="13">
-        <v>114.10639999999999</v>
-      </c>
-      <c r="K12" s="91">
-        <v>0</v>
-      </c>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
+        <v>114.1064</v>
+      </c>
+      <c r="K12" s="54">
+        <v>0</v>
+      </c>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
       <c r="N12" s="15">
-        <v>114.10639999999999</v>
-      </c>
-      <c r="O12" s="25">
-        <v>0.76070933333333302</v>
-      </c>
-      <c r="P12" s="20" t="s">
-        <v>23</v>
+        <v>114.1064</v>
+      </c>
+      <c r="O12" s="55">
+        <v>0.760709333333333</v>
+      </c>
+      <c r="P12" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="Q12" s="14">
         <v>2</v>
@@ -2542,16 +3051,16 @@
       <c r="R12" s="15">
         <v>5</v>
       </c>
-      <c r="S12" s="26"/>
-      <c r="T12" s="17">
-        <v>0</v>
-      </c>
-      <c r="U12" s="17"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="65">
+        <v>0</v>
+      </c>
+      <c r="U12" s="65"/>
       <c r="V12" s="15">
         <v>5</v>
       </c>
-      <c r="W12" s="21" t="s">
-        <v>23</v>
+      <c r="W12" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="X12" s="11">
         <v>3</v>
@@ -2562,13 +3071,13 @@
       <c r="Z12" s="15">
         <v>5</v>
       </c>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
+      <c r="AA12" s="73"/>
+      <c r="AB12" s="73"/>
       <c r="AC12" s="15">
         <v>5</v>
       </c>
-      <c r="AD12" s="19">
-        <v>1.6666666666666701</v>
+      <c r="AD12" s="74">
+        <v>1.66666666666667</v>
       </c>
       <c r="AE12" s="11">
         <v>2</v>
@@ -2576,54 +3085,54 @@
       <c r="AF12" s="14">
         <v>2</v>
       </c>
-      <c r="AG12" s="19">
+      <c r="AG12" s="74">
         <v>1</v>
       </c>
-      <c r="AH12" s="19">
-        <v>0.77414186666666696</v>
-      </c>
-      <c r="AI12" s="85"/>
+      <c r="AH12" s="74">
+        <v>0.774141866666667</v>
+      </c>
+      <c r="AI12" s="78"/>
     </row>
-    <row r="13" spans="1:35" ht="16.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A13" s="83"/>
-      <c r="B13" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="46">
+    <row r="13" ht="17.25" spans="1:35">
+      <c r="A13" s="22"/>
+      <c r="B13" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="36">
         <v>2000</v>
       </c>
-      <c r="D13" s="23">
-        <v>0</v>
-      </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="47">
+      <c r="D13" s="20">
+        <v>0</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="37">
         <v>2478.5</v>
       </c>
       <c r="G13" s="16">
         <v>1.23925</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="19">
         <v>150</v>
       </c>
       <c r="I13" s="13">
         <v>0</v>
       </c>
       <c r="J13" s="13">
-        <v>61.435099999999998</v>
-      </c>
-      <c r="K13" s="91">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
+        <v>61.4351</v>
+      </c>
+      <c r="K13" s="54">
+        <v>16.9</v>
+      </c>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
       <c r="N13" s="15">
-        <v>78.335099999999997</v>
-      </c>
-      <c r="O13" s="25">
-        <v>0.52223399999999998</v>
-      </c>
-      <c r="P13" s="27" t="s">
-        <v>23</v>
+        <v>78.3351</v>
+      </c>
+      <c r="O13" s="55">
+        <v>0.522234</v>
+      </c>
+      <c r="P13" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="Q13" s="14">
         <v>0</v>
@@ -2631,16 +3140,16 @@
       <c r="R13" s="15">
         <v>2</v>
       </c>
-      <c r="S13" s="48"/>
-      <c r="T13" s="17">
-        <v>0</v>
-      </c>
-      <c r="U13" s="17"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="65">
+        <v>0</v>
+      </c>
+      <c r="U13" s="65"/>
       <c r="V13" s="15">
         <v>2</v>
       </c>
-      <c r="W13" s="49" t="s">
-        <v>23</v>
+      <c r="W13" s="68" t="s">
+        <v>24</v>
       </c>
       <c r="X13" s="11">
         <v>3</v>
@@ -2651,13 +3160,13 @@
       <c r="Z13" s="15">
         <v>1</v>
       </c>
-      <c r="AA13" s="48"/>
-      <c r="AB13" s="48"/>
+      <c r="AA13" s="67"/>
+      <c r="AB13" s="67"/>
       <c r="AC13" s="15">
         <v>1</v>
       </c>
-      <c r="AD13" s="19">
-        <v>0.33333333333333298</v>
+      <c r="AD13" s="74">
+        <v>0.333333333333333</v>
       </c>
       <c r="AE13" s="11">
         <v>2</v>
@@ -2665,33 +3174,33 @@
       <c r="AF13" s="14">
         <v>0</v>
       </c>
-      <c r="AG13" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="19">
-        <v>0.85778013333333303</v>
-      </c>
-      <c r="AI13" s="85"/>
+      <c r="AG13" s="74">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="74">
+        <v>0.857780133333333</v>
+      </c>
+      <c r="AI13" s="78"/>
     </row>
-    <row r="14" spans="1:35" ht="16.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A14" s="83"/>
-      <c r="B14" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="46">
+    <row r="14" ht="17.25" spans="1:35">
+      <c r="A14" s="22"/>
+      <c r="B14" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="36">
         <v>2000</v>
       </c>
-      <c r="D14" s="23">
-        <v>0</v>
-      </c>
-      <c r="E14" s="23"/>
+      <c r="D14" s="20">
+        <v>0</v>
+      </c>
+      <c r="E14" s="20"/>
       <c r="F14" s="14">
         <v>500</v>
       </c>
       <c r="G14" s="16">
         <v>0.25</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="19">
         <v>150</v>
       </c>
       <c r="I14" s="11">
@@ -2700,19 +3209,19 @@
       <c r="J14" s="13">
         <v>61.7</v>
       </c>
-      <c r="K14" s="91">
+      <c r="K14" s="54">
         <v>8</v>
       </c>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
       <c r="N14" s="15">
         <v>69.7</v>
       </c>
-      <c r="O14" s="25">
-        <v>0.46466666666666701</v>
-      </c>
-      <c r="P14" s="27" t="s">
-        <v>23</v>
+      <c r="O14" s="55">
+        <v>0.464666666666667</v>
+      </c>
+      <c r="P14" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="Q14" s="14">
         <v>0</v>
@@ -2720,16 +3229,16 @@
       <c r="R14" s="15">
         <v>1</v>
       </c>
-      <c r="S14" s="48"/>
-      <c r="T14" s="17">
-        <v>0</v>
-      </c>
-      <c r="U14" s="17"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="65">
+        <v>0</v>
+      </c>
+      <c r="U14" s="65"/>
       <c r="V14" s="15">
         <v>1</v>
       </c>
-      <c r="W14" s="49" t="s">
-        <v>23</v>
+      <c r="W14" s="68" t="s">
+        <v>24</v>
       </c>
       <c r="X14" s="11">
         <v>3</v>
@@ -2740,13 +3249,13 @@
       <c r="Z14" s="15">
         <v>1</v>
       </c>
-      <c r="AA14" s="48"/>
-      <c r="AB14" s="48"/>
+      <c r="AA14" s="67"/>
+      <c r="AB14" s="67"/>
       <c r="AC14" s="15">
         <v>1</v>
       </c>
-      <c r="AD14" s="19">
-        <v>0.33333333333333298</v>
+      <c r="AD14" s="74">
+        <v>0.333333333333333</v>
       </c>
       <c r="AE14" s="11">
         <v>2</v>
@@ -2754,124 +3263,124 @@
       <c r="AF14" s="14">
         <v>3</v>
       </c>
-      <c r="AG14" s="19">
+      <c r="AG14" s="74">
         <v>1.5</v>
       </c>
-      <c r="AH14" s="19">
-        <v>0.39626666666666699</v>
-      </c>
-      <c r="AI14" s="85"/>
+      <c r="AH14" s="74">
+        <v>0.396266666666667</v>
+      </c>
+      <c r="AI14" s="78"/>
     </row>
-    <row r="15" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="87"/>
-      <c r="B15" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="52">
+    <row r="15" ht="18.75" spans="1:35">
+      <c r="A15" s="38"/>
+      <c r="B15" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="40">
         <v>10000</v>
       </c>
-      <c r="D15" s="30">
-        <v>0</v>
-      </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="32">
+      <c r="D15" s="26">
+        <v>0</v>
+      </c>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28">
         <v>9759.5</v>
       </c>
-      <c r="G15" s="33">
-        <v>0.97594999999999998</v>
-      </c>
-      <c r="H15" s="52">
+      <c r="G15" s="29">
+        <v>0.97595</v>
+      </c>
+      <c r="H15" s="40">
         <v>750</v>
       </c>
-      <c r="I15" s="53">
+      <c r="I15" s="60">
         <v>11</v>
       </c>
       <c r="J15" s="13">
         <v>281</v>
       </c>
-      <c r="K15" s="91">
+      <c r="K15" s="54">
         <v>25</v>
       </c>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="36">
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="58">
         <v>306</v>
       </c>
-      <c r="O15" s="54">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="P15" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q15" s="31">
+      <c r="O15" s="61">
+        <v>0.408</v>
+      </c>
+      <c r="P15" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="27">
         <v>2</v>
       </c>
       <c r="R15" s="15">
         <v>11</v>
       </c>
-      <c r="S15" s="35"/>
-      <c r="T15" s="17">
-        <v>0</v>
-      </c>
-      <c r="U15" s="35"/>
-      <c r="V15" s="36">
+      <c r="S15" s="57"/>
+      <c r="T15" s="65">
+        <v>0</v>
+      </c>
+      <c r="U15" s="57"/>
+      <c r="V15" s="58">
         <v>11</v>
       </c>
-      <c r="W15" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="X15" s="37">
+      <c r="W15" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="X15" s="59">
         <v>15</v>
       </c>
-      <c r="Y15" s="34">
+      <c r="Y15" s="56">
         <v>2</v>
       </c>
       <c r="Z15" s="15">
         <v>10</v>
       </c>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="36">
+      <c r="AA15" s="56"/>
+      <c r="AB15" s="56"/>
+      <c r="AC15" s="58">
         <v>10</v>
       </c>
-      <c r="AD15" s="38">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="AE15" s="37">
+      <c r="AD15" s="75">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="AE15" s="59">
         <v>10</v>
       </c>
-      <c r="AF15" s="34">
+      <c r="AF15" s="56">
         <v>5</v>
       </c>
-      <c r="AG15" s="38">
+      <c r="AG15" s="75">
         <v>0.5</v>
       </c>
-      <c r="AH15" s="38">
-        <v>0.78383666666666696</v>
-      </c>
-      <c r="AI15" s="88"/>
+      <c r="AH15" s="75">
+        <v>0.783836666666667</v>
+      </c>
+      <c r="AI15" s="80"/>
     </row>
-    <row r="16" spans="1:35" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="89" t="s">
-        <v>35</v>
+    <row r="16" ht="17.25" customHeight="1" spans="1:35">
+      <c r="A16" s="41" t="s">
+        <v>36</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="55" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>24</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H16" s="13">
         <v>1500</v>
@@ -2880,18 +3389,18 @@
         <v>95</v>
       </c>
       <c r="J16" s="13">
-        <v>771.49379999999996</v>
-      </c>
-      <c r="K16" s="91">
+        <v>771.4938</v>
+      </c>
+      <c r="K16" s="54">
         <v>364.6</v>
       </c>
-      <c r="L16" s="56"/>
+      <c r="L16" s="62"/>
       <c r="M16" s="15"/>
       <c r="N16" s="15">
-        <v>1136.0938000000001</v>
+        <v>1136.0938</v>
       </c>
       <c r="O16" s="16">
-        <v>0.75739586666666703</v>
+        <v>0.757395866666667</v>
       </c>
       <c r="P16" s="11">
         <v>65</v>
@@ -2902,18 +3411,18 @@
       <c r="R16" s="15">
         <v>71</v>
       </c>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17">
+      <c r="S16" s="65"/>
+      <c r="T16" s="65">
         <v>23</v>
       </c>
-      <c r="U16" s="17">
+      <c r="U16" s="65">
         <v>2</v>
       </c>
       <c r="V16" s="15">
         <v>96</v>
       </c>
       <c r="W16" s="16">
-        <v>1.4769230769230799</v>
+        <v>1.47692307692308</v>
       </c>
       <c r="X16" s="13">
         <v>45</v>
@@ -2924,13 +3433,13 @@
       <c r="Z16" s="15">
         <v>83</v>
       </c>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="18"/>
+      <c r="AA16" s="73"/>
+      <c r="AB16" s="73"/>
       <c r="AC16" s="15">
         <v>83</v>
       </c>
-      <c r="AD16" s="19">
-        <v>1.8444444444444399</v>
+      <c r="AD16" s="74">
+        <v>1.84444444444444</v>
       </c>
       <c r="AE16" s="11">
         <v>5</v>
@@ -2938,37 +3447,37 @@
       <c r="AF16" s="14">
         <v>6</v>
       </c>
-      <c r="AG16" s="19">
+      <c r="AG16" s="74">
         <v>1.2</v>
       </c>
-      <c r="AH16" s="19">
-        <v>0.93443752000000002</v>
-      </c>
-      <c r="AI16" s="57">
-        <v>0.93443752000000002</v>
+      <c r="AH16" s="74">
+        <v>0.93443752</v>
+      </c>
+      <c r="AI16" s="81">
+        <v>0.93443752</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="89"/>
-      <c r="B17" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>23</v>
+    <row r="17" ht="16.9" customHeight="1" spans="1:35">
+      <c r="A17" s="41"/>
+      <c r="B17" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="55" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>24</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="22">
+        <v>24</v>
+      </c>
+      <c r="H17" s="19">
         <v>750</v>
       </c>
       <c r="I17" s="15">
@@ -2977,18 +3486,18 @@
       <c r="J17" s="13">
         <v>81.22</v>
       </c>
-      <c r="K17" s="91">
+      <c r="K17" s="54">
         <v>128.8948</v>
       </c>
-      <c r="L17" s="56"/>
+      <c r="L17" s="62"/>
       <c r="M17" s="15"/>
       <c r="N17" s="15">
         <v>210.1148</v>
       </c>
-      <c r="O17" s="25">
-        <v>0.28015306666666701</v>
-      </c>
-      <c r="P17" s="20">
+      <c r="O17" s="55">
+        <v>0.280153066666667</v>
+      </c>
+      <c r="P17" s="17">
         <v>65</v>
       </c>
       <c r="Q17" s="15">
@@ -2997,13 +3506,13 @@
       <c r="R17" s="15">
         <v>55</v>
       </c>
-      <c r="S17" s="26">
+      <c r="S17" s="66">
         <v>14</v>
       </c>
-      <c r="T17" s="17">
+      <c r="T17" s="65">
         <v>5</v>
       </c>
-      <c r="U17" s="17"/>
+      <c r="U17" s="65"/>
       <c r="V17" s="15">
         <v>74</v>
       </c>
@@ -3019,15 +3528,15 @@
       <c r="Z17" s="15">
         <v>47</v>
       </c>
-      <c r="AA17" s="18">
+      <c r="AA17" s="73">
         <v>3</v>
       </c>
-      <c r="AB17" s="18"/>
+      <c r="AB17" s="73"/>
       <c r="AC17" s="15">
         <v>50</v>
       </c>
-      <c r="AD17" s="19">
-        <v>1.1111111111111101</v>
+      <c r="AD17" s="74">
+        <v>1.11111111111111</v>
       </c>
       <c r="AE17" s="11">
         <v>3</v>
@@ -3035,55 +3544,55 @@
       <c r="AF17" s="14">
         <v>6</v>
       </c>
-      <c r="AG17" s="19">
+      <c r="AG17" s="74">
         <v>2</v>
       </c>
-      <c r="AH17" s="19">
-        <v>0.62416021606837602</v>
-      </c>
-      <c r="AI17" s="57">
-        <v>0.62416021606837602</v>
+      <c r="AH17" s="74">
+        <v>0.624160216068376</v>
+      </c>
+      <c r="AI17" s="81">
+        <v>0.624160216068376</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="16.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A18" s="89"/>
+    <row r="18" ht="17.25" spans="1:35">
+      <c r="A18" s="41"/>
       <c r="B18" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="55" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>24</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="22">
+        <v>24</v>
+      </c>
+      <c r="H18" s="19">
         <v>750</v>
       </c>
       <c r="I18" s="11">
         <v>12</v>
       </c>
       <c r="J18" s="13">
-        <v>307.64120000000003</v>
-      </c>
-      <c r="K18" s="91">
-        <v>132.79159999999999</v>
-      </c>
-      <c r="L18" s="56"/>
+        <v>307.6412</v>
+      </c>
+      <c r="K18" s="54">
+        <v>132.7916</v>
+      </c>
+      <c r="L18" s="62"/>
       <c r="M18" s="15"/>
       <c r="N18" s="15">
-        <v>440.43279999999999</v>
-      </c>
-      <c r="O18" s="25">
-        <v>0.58724373333333302</v>
+        <v>440.4328</v>
+      </c>
+      <c r="O18" s="55">
+        <v>0.587243733333333</v>
       </c>
       <c r="P18" s="11">
         <v>65</v>
@@ -3094,18 +3603,18 @@
       <c r="R18" s="15">
         <v>33</v>
       </c>
-      <c r="S18" s="17">
+      <c r="S18" s="65">
         <v>5</v>
       </c>
-      <c r="T18" s="17">
+      <c r="T18" s="65">
         <v>7</v>
       </c>
-      <c r="U18" s="17"/>
+      <c r="U18" s="65"/>
       <c r="V18" s="15">
         <v>45</v>
       </c>
       <c r="W18" s="16">
-        <v>0.69230769230769196</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="X18" s="13">
         <v>45</v>
@@ -3116,12 +3625,12 @@
       <c r="Z18" s="15">
         <v>18</v>
       </c>
-      <c r="AA18" s="18"/>
-      <c r="AB18" s="18"/>
+      <c r="AA18" s="73"/>
+      <c r="AB18" s="73"/>
       <c r="AC18" s="15">
         <v>18</v>
       </c>
-      <c r="AD18" s="19">
+      <c r="AD18" s="74">
         <v>0.4</v>
       </c>
       <c r="AE18" s="11">
@@ -3130,37 +3639,37 @@
       <c r="AF18" s="14">
         <v>0</v>
       </c>
-      <c r="AG18" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="19">
-        <v>0.50157700923076898</v>
-      </c>
-      <c r="AI18" s="57">
-        <v>0.50157700923076898</v>
+      <c r="AG18" s="74">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="74">
+        <v>0.501577009230769</v>
+      </c>
+      <c r="AI18" s="81">
+        <v>0.501577009230769</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="16.899999999999999" x14ac:dyDescent="0.4">
-      <c r="A19" s="89"/>
-      <c r="B19" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>23</v>
+    <row r="19" ht="17.25" spans="1:35">
+      <c r="A19" s="41"/>
+      <c r="B19" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="55" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>24</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="22">
+        <v>24</v>
+      </c>
+      <c r="H19" s="19">
         <v>650</v>
       </c>
       <c r="I19" s="11">
@@ -3169,18 +3678,18 @@
       <c r="J19" s="13">
         <v>30</v>
       </c>
-      <c r="K19" s="91">
-        <v>563.02599999999995</v>
-      </c>
-      <c r="L19" s="56"/>
+      <c r="K19" s="54">
+        <v>563.026</v>
+      </c>
+      <c r="L19" s="62"/>
       <c r="M19" s="15"/>
       <c r="N19" s="15">
-        <v>593.02599999999995</v>
-      </c>
-      <c r="O19" s="25">
-        <v>0.91234769230769197</v>
-      </c>
-      <c r="P19" s="20">
+        <v>593.026</v>
+      </c>
+      <c r="O19" s="55">
+        <v>0.912347692307692</v>
+      </c>
+      <c r="P19" s="17">
         <v>60</v>
       </c>
       <c r="Q19" s="15">
@@ -3189,18 +3698,18 @@
       <c r="R19" s="15">
         <v>28</v>
       </c>
-      <c r="S19" s="17">
+      <c r="S19" s="65">
         <v>6</v>
       </c>
-      <c r="T19" s="17">
+      <c r="T19" s="65">
         <v>21</v>
       </c>
-      <c r="U19" s="17"/>
+      <c r="U19" s="65"/>
       <c r="V19" s="15">
         <v>55</v>
       </c>
       <c r="W19" s="16">
-        <v>0.91666666666666696</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="X19" s="13">
         <v>40</v>
@@ -3211,53 +3720,53 @@
       <c r="Z19" s="15">
         <v>46</v>
       </c>
-      <c r="AA19" s="18">
+      <c r="AA19" s="73">
         <v>6</v>
       </c>
-      <c r="AB19" s="18"/>
+      <c r="AB19" s="73"/>
       <c r="AC19" s="15">
         <v>52</v>
       </c>
-      <c r="AD19" s="19">
+      <c r="AD19" s="74">
         <v>1.3</v>
       </c>
-      <c r="AE19" s="20">
+      <c r="AE19" s="17">
         <v>3</v>
       </c>
       <c r="AF19" s="14">
         <v>0</v>
       </c>
-      <c r="AG19" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="19">
-        <v>0.87907528205128205</v>
-      </c>
-      <c r="AI19" s="58">
-        <v>0.87907528205128205</v>
+      <c r="AG19" s="74">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="74">
+        <v>0.879075282051282</v>
+      </c>
+      <c r="AI19" s="82">
+        <v>0.879075282051282</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="16.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A20" s="89"/>
-      <c r="B20" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>23</v>
+    <row r="20" ht="17.25" spans="1:35">
+      <c r="A20" s="41"/>
+      <c r="B20" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="55" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>24</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="22">
+        <v>24</v>
+      </c>
+      <c r="H20" s="19">
         <v>500</v>
       </c>
       <c r="I20" s="11">
@@ -3266,18 +3775,18 @@
       <c r="J20" s="13">
         <v>90.8</v>
       </c>
-      <c r="K20" s="91">
+      <c r="K20" s="54">
         <v>328.2</v>
       </c>
-      <c r="L20" s="56"/>
+      <c r="L20" s="62"/>
       <c r="M20" s="15"/>
       <c r="N20" s="15">
         <v>419</v>
       </c>
-      <c r="O20" s="25">
-        <v>0.83799999999999997</v>
-      </c>
-      <c r="P20" s="20">
+      <c r="O20" s="55">
+        <v>0.838</v>
+      </c>
+      <c r="P20" s="17">
         <v>60</v>
       </c>
       <c r="Q20" s="15">
@@ -3286,18 +3795,18 @@
       <c r="R20" s="15">
         <v>26</v>
       </c>
-      <c r="S20" s="17">
+      <c r="S20" s="65">
         <v>12</v>
       </c>
-      <c r="T20" s="17">
+      <c r="T20" s="65">
         <v>21</v>
       </c>
-      <c r="U20" s="17"/>
+      <c r="U20" s="65"/>
       <c r="V20" s="15">
         <v>59</v>
       </c>
       <c r="W20" s="16">
-        <v>0.98333333333333295</v>
+        <v>0.983333333333333</v>
       </c>
       <c r="X20" s="13">
         <v>40</v>
@@ -3308,53 +3817,53 @@
       <c r="Z20" s="15">
         <v>33</v>
       </c>
-      <c r="AA20" s="18">
+      <c r="AA20" s="73">
         <v>2</v>
       </c>
-      <c r="AB20" s="18"/>
+      <c r="AB20" s="73"/>
       <c r="AC20" s="15">
         <v>35</v>
       </c>
-      <c r="AD20" s="19">
+      <c r="AD20" s="74">
         <v>0.875</v>
       </c>
-      <c r="AE20" s="20">
+      <c r="AE20" s="17">
         <v>2</v>
       </c>
       <c r="AF20" s="14">
         <v>1</v>
       </c>
-      <c r="AG20" s="19">
+      <c r="AG20" s="74">
         <v>0.5</v>
       </c>
-      <c r="AH20" s="19">
-        <v>0.82613333333333305</v>
-      </c>
-      <c r="AI20" s="58">
-        <v>0.82613333333333305</v>
+      <c r="AH20" s="74">
+        <v>0.826133333333333</v>
+      </c>
+      <c r="AI20" s="82">
+        <v>0.826133333333333</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="16.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A21" s="89"/>
+    <row r="21" ht="17.25" spans="1:35">
+      <c r="A21" s="41"/>
       <c r="B21" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="55" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>24</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="22">
+        <v>24</v>
+      </c>
+      <c r="H21" s="19">
         <v>500</v>
       </c>
       <c r="I21" s="15">
@@ -3363,16 +3872,16 @@
       <c r="J21" s="13">
         <v>103.8</v>
       </c>
-      <c r="K21" s="91">
-        <v>385.32709999999997</v>
-      </c>
-      <c r="L21" s="56"/>
+      <c r="K21" s="54">
+        <v>385.3271</v>
+      </c>
+      <c r="L21" s="62"/>
       <c r="M21" s="15"/>
       <c r="N21" s="15">
-        <v>489.12709999999998</v>
-      </c>
-      <c r="O21" s="25">
-        <v>0.97825419999999996</v>
+        <v>489.1271</v>
+      </c>
+      <c r="O21" s="55">
+        <v>0.9782542</v>
       </c>
       <c r="P21" s="11">
         <v>60</v>
@@ -3383,13 +3892,13 @@
       <c r="R21" s="15">
         <v>19</v>
       </c>
-      <c r="S21" s="17">
+      <c r="S21" s="65">
         <v>6</v>
       </c>
-      <c r="T21" s="17">
+      <c r="T21" s="65">
         <v>11</v>
       </c>
-      <c r="U21" s="17"/>
+      <c r="U21" s="65"/>
       <c r="V21" s="15">
         <v>36</v>
       </c>
@@ -3405,14 +3914,14 @@
       <c r="Z21" s="15">
         <v>30</v>
       </c>
-      <c r="AA21" s="18">
+      <c r="AA21" s="73">
         <v>5</v>
       </c>
-      <c r="AB21" s="18"/>
+      <c r="AB21" s="73"/>
       <c r="AC21" s="15">
         <v>35</v>
       </c>
-      <c r="AD21" s="19">
+      <c r="AD21" s="74">
         <v>0.875</v>
       </c>
       <c r="AE21" s="11">
@@ -3421,35 +3930,35 @@
       <c r="AF21" s="14">
         <v>1</v>
       </c>
-      <c r="AG21" s="19">
+      <c r="AG21" s="74">
         <v>0.5</v>
       </c>
-      <c r="AH21" s="19">
-        <v>0.87195252000000001</v>
-      </c>
-      <c r="AI21" s="58">
-        <v>0.87195252000000001</v>
+      <c r="AH21" s="74">
+        <v>0.87195252</v>
+      </c>
+      <c r="AI21" s="82">
+        <v>0.87195252</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="16.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A22" s="89"/>
+    <row r="22" ht="17.25" spans="1:35">
+      <c r="A22" s="41"/>
       <c r="B22" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="55" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>24</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H22" s="13">
         <v>500</v>
@@ -3460,16 +3969,16 @@
       <c r="J22" s="13">
         <v>13.9</v>
       </c>
-      <c r="K22" s="91">
+      <c r="K22" s="54">
         <v>479.45</v>
       </c>
-      <c r="L22" s="56"/>
+      <c r="L22" s="62"/>
       <c r="M22" s="15"/>
       <c r="N22" s="15">
         <v>493.35</v>
       </c>
-      <c r="O22" s="25">
-        <v>0.98670000000000002</v>
+      <c r="O22" s="55">
+        <v>0.9867</v>
       </c>
       <c r="P22" s="11">
         <v>60</v>
@@ -3480,16 +3989,16 @@
       <c r="R22" s="15">
         <v>24</v>
       </c>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17">
+      <c r="S22" s="65"/>
+      <c r="T22" s="65">
         <v>31</v>
       </c>
-      <c r="U22" s="17"/>
+      <c r="U22" s="65"/>
       <c r="V22" s="15">
         <v>55</v>
       </c>
       <c r="W22" s="16">
-        <v>0.91666666666666696</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="X22" s="13">
         <v>40</v>
@@ -3500,12 +4009,12 @@
       <c r="Z22" s="15">
         <v>50</v>
       </c>
-      <c r="AA22" s="18"/>
-      <c r="AB22" s="18"/>
+      <c r="AA22" s="73"/>
+      <c r="AB22" s="73"/>
       <c r="AC22" s="15">
         <v>50</v>
       </c>
-      <c r="AD22" s="19">
+      <c r="AD22" s="74">
         <v>1.25</v>
       </c>
       <c r="AE22" s="11">
@@ -3514,137 +4023,137 @@
       <c r="AF22" s="14">
         <v>1</v>
       </c>
-      <c r="AG22" s="19">
+      <c r="AG22" s="74">
         <v>0.5</v>
       </c>
-      <c r="AH22" s="19">
-        <v>0.97368666666666703</v>
-      </c>
-      <c r="AI22" s="58">
-        <v>0.97368666666666703</v>
+      <c r="AH22" s="74">
+        <v>0.973686666666667</v>
+      </c>
+      <c r="AI22" s="82">
+        <v>0.973686666666667</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="90"/>
-      <c r="B23" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="29">
+    <row r="23" ht="18.75" spans="1:35">
+      <c r="A23" s="43"/>
+      <c r="B23" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="25">
         <v>5150</v>
       </c>
-      <c r="I23" s="35">
+      <c r="I23" s="57">
         <v>265</v>
       </c>
       <c r="J23" s="13">
         <v>1399</v>
       </c>
-      <c r="K23" s="91">
+      <c r="K23" s="54">
         <v>2382</v>
       </c>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="36">
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="58">
         <v>3781</v>
       </c>
-      <c r="O23" s="33">
-        <v>0.73417475728155301</v>
-      </c>
-      <c r="P23" s="37">
+      <c r="O23" s="29">
+        <v>0.734174757281553</v>
+      </c>
+      <c r="P23" s="59">
         <v>435</v>
       </c>
-      <c r="Q23" s="35">
+      <c r="Q23" s="57">
         <v>52</v>
       </c>
       <c r="R23" s="15">
         <v>256</v>
       </c>
-      <c r="S23" s="35">
+      <c r="S23" s="57">
         <v>43</v>
       </c>
-      <c r="T23" s="17">
+      <c r="T23" s="65">
         <v>119</v>
       </c>
-      <c r="U23" s="35">
+      <c r="U23" s="57">
         <v>2</v>
       </c>
-      <c r="V23" s="36">
+      <c r="V23" s="58">
         <v>420</v>
       </c>
-      <c r="W23" s="33">
-        <v>0.96551724137931005</v>
-      </c>
-      <c r="X23" s="37">
+      <c r="W23" s="29">
+        <v>0.96551724137931</v>
+      </c>
+      <c r="X23" s="59">
         <v>295</v>
       </c>
-      <c r="Y23" s="35">
+      <c r="Y23" s="57">
         <v>34</v>
       </c>
       <c r="Z23" s="15">
         <v>307</v>
       </c>
-      <c r="AA23" s="34"/>
-      <c r="AB23" s="34"/>
-      <c r="AC23" s="36">
+      <c r="AA23" s="56"/>
+      <c r="AB23" s="56"/>
+      <c r="AC23" s="58">
         <v>307</v>
       </c>
-      <c r="AD23" s="38">
-        <v>1.0406779661016901</v>
-      </c>
-      <c r="AE23" s="37">
+      <c r="AD23" s="75">
+        <v>1.04067796610169</v>
+      </c>
+      <c r="AE23" s="59">
         <v>20</v>
       </c>
-      <c r="AF23" s="34">
+      <c r="AF23" s="56">
         <v>15</v>
       </c>
-      <c r="AG23" s="38">
+      <c r="AG23" s="75">
         <v>0.75</v>
       </c>
-      <c r="AH23" s="38">
-        <v>0.82019217172720205</v>
-      </c>
-      <c r="AI23" s="39" t="s">
-        <v>23</v>
+      <c r="AH23" s="75">
+        <v>0.820192171727202</v>
+      </c>
+      <c r="AI23" s="79" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="17.649999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="67"/>
-      <c r="C24" s="59">
+    <row r="24" ht="19.5" spans="1:35">
+      <c r="A24" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="45"/>
+      <c r="C24" s="44">
         <v>20000</v>
       </c>
-      <c r="D24" s="60">
-        <v>0</v>
-      </c>
-      <c r="E24" s="61">
-        <v>0</v>
-      </c>
-      <c r="F24" s="60">
+      <c r="D24" s="46">
+        <v>0</v>
+      </c>
+      <c r="E24" s="47">
+        <v>0</v>
+      </c>
+      <c r="F24" s="46">
         <v>19357</v>
       </c>
-      <c r="G24" s="62">
-        <v>0.96784999999999999</v>
-      </c>
-      <c r="H24" s="59">
+      <c r="G24" s="48">
+        <v>0.96785</v>
+      </c>
+      <c r="H24" s="44">
         <v>6700</v>
       </c>
-      <c r="I24" s="61">
+      <c r="I24" s="47">
         <v>311</v>
       </c>
       <c r="J24" s="13">
@@ -3653,166 +4162,98 @@
       <c r="K24" s="15">
         <v>2431</v>
       </c>
-      <c r="L24" s="61">
-        <v>0</v>
-      </c>
-      <c r="M24" s="61">
-        <v>0</v>
-      </c>
-      <c r="N24" s="60">
+      <c r="L24" s="47">
+        <v>0</v>
+      </c>
+      <c r="M24" s="47">
+        <v>0</v>
+      </c>
+      <c r="N24" s="46">
         <v>4417</v>
       </c>
-      <c r="O24" s="62">
-        <v>0.65925373134328402</v>
-      </c>
-      <c r="P24" s="59">
+      <c r="O24" s="48">
+        <v>0.659253731343284</v>
+      </c>
+      <c r="P24" s="44">
         <v>435</v>
       </c>
-      <c r="Q24" s="61">
+      <c r="Q24" s="47">
         <v>55</v>
       </c>
       <c r="R24" s="15">
         <v>275</v>
       </c>
-      <c r="S24" s="61">
+      <c r="S24" s="47">
         <v>43</v>
       </c>
-      <c r="T24" s="17">
+      <c r="T24" s="65">
         <v>119</v>
       </c>
-      <c r="U24" s="61">
+      <c r="U24" s="47">
         <v>2</v>
       </c>
-      <c r="V24" s="61">
+      <c r="V24" s="47">
         <v>439</v>
       </c>
-      <c r="W24" s="62">
-        <v>1.0091954022988501</v>
-      </c>
-      <c r="X24" s="63">
+      <c r="W24" s="48">
+        <v>1.00919540229885</v>
+      </c>
+      <c r="X24" s="69">
         <v>327</v>
       </c>
-      <c r="Y24" s="61">
+      <c r="Y24" s="47">
         <v>37</v>
       </c>
       <c r="Z24" s="15">
         <v>324</v>
       </c>
-      <c r="AA24" s="61">
+      <c r="AA24" s="47">
         <v>16</v>
       </c>
-      <c r="AB24" s="61">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="61">
+      <c r="AB24" s="47">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="47">
         <v>340</v>
       </c>
-      <c r="AD24" s="62">
+      <c r="AD24" s="48">
         <v>1.03975535168196</v>
       </c>
-      <c r="AE24" s="63">
+      <c r="AE24" s="69">
         <v>41</v>
       </c>
-      <c r="AF24" s="64">
+      <c r="AF24" s="76">
         <v>29</v>
       </c>
-      <c r="AG24" s="62">
+      <c r="AG24" s="48">
         <v>0.707317073170732</v>
       </c>
-      <c r="AH24" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI24" s="65" t="s">
-        <v>23</v>
+      <c r="AH24" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI24" s="83" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A24:B24"/>
     <mergeCell ref="A1:AI1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="H2:O2"/>
     <mergeCell ref="P2:W2"/>
     <mergeCell ref="X2:AD2"/>
     <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="B2:B3"/>
     <mergeCell ref="AH2:AH3"/>
     <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="A4:A9"/>
     <mergeCell ref="AI4:AI9"/>
-    <mergeCell ref="A10:A15"/>
     <mergeCell ref="AI10:AI15"/>
-    <mergeCell ref="A16:A23"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D4:E8 D10:E14">
-    <cfRule type="cellIs" dxfId="4" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G21 G23">
-    <cfRule type="dataBar" priority="40">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{297E91AC-812E-4199-B8F7-637914DEC930}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="38">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D8C81436-AF39-4E67-8B4D-2C11EBC7E510}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="37">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0BB8BB73-A8E9-4363-A23D-CA85C6501FA7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="36">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CAB3FEF6-E174-456B-90C9-DB632E456BED}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="39">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E2C3516E-AE09-456E-A303-A84460B28629}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G22">
     <cfRule type="dataBar" priority="2">
       <dataBar>
@@ -3822,7 +4263,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{62FD249D-27FE-4A00-9A83-8FEBDEC2182C}</x14:id>
+          <x14:id>{aa30a8e7-264f-469e-8d8a-c9b991b6872b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3834,7 +4275,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{86486423-E969-4146-BC46-D0BECEABE670}</x14:id>
+          <x14:id>{9b5ff563-73b6-4ad6-bb7e-d8c5a0f3f7b1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3846,7 +4287,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{443F25F0-5FCD-4E6E-B070-8571625086D4}</x14:id>
+          <x14:id>{163f7d6e-4e9b-48d5-a18a-38d161f76f64}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3858,7 +4299,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A3831357-5170-4377-8ADC-F8D01CBEBFEB}</x14:id>
+          <x14:id>{f056aca6-8c54-45b4-bab4-a7c4b283bc24}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3870,18 +4311,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3DDEC899-C44F-4693-AA72-88872CE388E7}</x14:id>
+          <x14:id>{fcff8b77-0730-46a8-af46-41ce152e7efd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:I17 I21">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="N4:N23">
-    <cfRule type="top10" dxfId="2" priority="14" rank="3"/>
+    <cfRule type="top10" dxfId="0" priority="14" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:O23">
     <cfRule type="dataBar" priority="31">
@@ -3892,7 +4328,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C3319B24-7326-4ED6-B6C3-0D9680095EF0}</x14:id>
+          <x14:id>{e41c33ee-e161-4ccd-908d-77dc20a2609c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3904,7 +4340,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FF7D44B7-96C1-4035-9507-D9F6F5657B48}</x14:id>
+          <x14:id>{efe226fc-ca06-4d2c-84ed-f5c88513a5be}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3916,7 +4352,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{21A74BF9-2F80-4557-9546-3ED3D53144E4}</x14:id>
+          <x14:id>{6a44da0f-295f-43fb-bd90-b857884a0063}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3928,7 +4364,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D9FEEF06-7448-4438-A46D-62039FA99232}</x14:id>
+          <x14:id>{c7f2c172-6ace-408d-b039-ed0e5f5d0758}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3940,13 +4376,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{75B10F46-35B7-455F-A5FD-C605A675F0BF}</x14:id>
+          <x14:id>{190072ea-7ab6-451c-a9e4-8794d1b94e4a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V4:V23">
-    <cfRule type="top10" dxfId="1" priority="13" rank="3"/>
+    <cfRule type="top10" dxfId="0" priority="13" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W16:W23">
     <cfRule type="dataBar" priority="22">
@@ -3957,7 +4393,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{074C1BB0-DF92-47E6-A7C5-63B15983AC2B}</x14:id>
+          <x14:id>{5391289b-c161-4cd9-a4f5-326aa4c001ab}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3969,7 +4405,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{87E18A12-9370-4E94-B272-32F0CDF55288}</x14:id>
+          <x14:id>{2d673993-b3db-43ca-929f-d3f3dfbad737}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3981,7 +4417,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{68B526F6-5ABF-451E-B28C-43FF4CBF5912}</x14:id>
+          <x14:id>{f55fa198-fe63-473f-89f5-d8800aa2e7ab}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3993,7 +4429,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{65104BFB-C695-4B70-AFD2-054C9686684F}</x14:id>
+          <x14:id>{53bc61e5-e8e6-4a52-a122-2be6c3038d26}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4005,7 +4441,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F0A15294-15CC-44F2-A075-4BE8662D0BD2}</x14:id>
+          <x14:id>{fba65199-6a3a-4ce2-9be7-10e174311ca7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4022,7 +4458,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{74007BF8-8AEE-4F4D-96A2-D2BCB4748643}</x14:id>
+          <x14:id>{94af03fa-01c0-4f58-bc05-c8c2dde11690}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4034,7 +4470,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6E561A46-331A-47B8-9B63-D0FA1FF63E9A}</x14:id>
+          <x14:id>{1a56772f-80e4-4d44-a1cc-f8dca24fde5f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4046,7 +4482,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D6875703-F31C-4B4E-BA95-61FD58CFB745}</x14:id>
+          <x14:id>{b483bc04-46bd-4312-931f-2a2698acfd64}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4058,7 +4494,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0A5281AD-C37A-4708-93F3-95F24179C789}</x14:id>
+          <x14:id>{86253e53-8322-45bf-bf89-d5247af4a508}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4070,7 +4506,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{88190C69-58CB-49F9-AE70-8754715BF0C3}</x14:id>
+          <x14:id>{e6c0d04b-0195-4699-b2a1-8ff5f1f86765}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4084,7 +4520,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9D78E0B9-5DDC-4F52-ACA2-7E1103E7150D}</x14:id>
+          <x14:id>{460a7445-59fd-488c-8452-0e7962e9079a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4096,7 +4532,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C9D79F0E-451B-4D64-8CDA-4CD91F49B3B5}</x14:id>
+          <x14:id>{c4f26a4e-6bbd-46a5-9d51-019ae1e7d709}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4108,7 +4544,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C65CF563-328F-404F-8919-E81DC8A5AACD}</x14:id>
+          <x14:id>{f512f360-aa42-406f-b6a7-f34f8e2cd888}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4120,7 +4556,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8D348717-DAE1-49D2-B83B-983C7FFC2229}</x14:id>
+          <x14:id>{77255bd6-6e0d-43f8-8cb8-935a17ef355b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4132,7 +4568,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{52ED09AF-3466-4AAC-B6D6-BD51AE374274}</x14:id>
+          <x14:id>{7c797051-57d2-4b2f-823c-fc093c65c793}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4146,7 +4582,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{66C90E05-440A-42C6-9665-1E0AEE86AEC4}</x14:id>
+          <x14:id>{ea82aadf-f4e0-4b2a-a8f7-0df3e71c3aa3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4158,7 +4594,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{00111F70-5BE2-440F-956F-B4AB585EF4CC}</x14:id>
+          <x14:id>{e4e35fa2-71ea-488d-96b1-2d9f4aba372a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4170,7 +4606,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7473D8CB-FFD3-47B0-B503-1079AF44C340}</x14:id>
+          <x14:id>{170ead70-1072-40d1-b4ef-f7bdec894796}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4182,7 +4618,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B1A36951-AD34-4634-8ED5-A1647F7528AE}</x14:id>
+          <x14:id>{f417d11a-fbc4-4b3f-8b17-de741b8d9f76}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4194,35 +4630,90 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EEC34FB0-4DEC-4E08-B7BE-1B38CFA8B71E}</x14:id>
+          <x14:id>{e1123254-0c9f-4851-a45b-60b11604cf83}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D4:E8 D10:E14">
+    <cfRule type="cellIs" dxfId="1" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G21 G23">
+    <cfRule type="dataBar" priority="40">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{d72bd047-80cf-4104-b50f-8cf82d04b8d0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="38">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{48cf2667-7efd-45ae-b90d-26537269d245}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="37">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4fcb6635-f27c-4dae-807a-63bdd84649b8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="36">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{32ee3821-10bd-451a-b8a5-fd977997b603}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="39">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{d7eb1521-4bb5-4e61-b62d-d502266642ba}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:I17 I21">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{297E91AC-812E-4199-B8F7-637914DEC930}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{D8C81436-AF39-4E67-8B4D-2C11EBC7E510}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{0BB8BB73-A8E9-4363-A23D-CA85C6501FA7}">
+          <x14:cfRule type="dataBar" id="{aa30a8e7-264f-469e-8d8a-c9b991b6872b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4234,19 +4725,15 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{CAB3FEF6-E174-456B-90C9-DB632E456BED}">
+          <x14:cfRule type="dataBar" id="{9b5ff563-73b6-4ad6-bb7e-d8c5a0f3f7b1}">
             <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{E2C3516E-AE09-456E-A303-A84460B28629}">
+          <x14:cfRule type="dataBar" id="{163f7d6e-4e9b-48d5-a18a-38d161f76f64}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4258,42 +4745,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G4:G21 G23</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{62FD249D-27FE-4A00-9A83-8FEBDEC2182C}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{86486423-E969-4146-BC46-D0BECEABE670}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{443F25F0-5FCD-4E6E-B070-8571625086D4}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{A3831357-5170-4377-8ADC-F8D01CBEBFEB}">
+          <x14:cfRule type="dataBar" id="{f056aca6-8c54-45b4-bab4-a7c4b283bc24}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4303,7 +4755,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3DDEC899-C44F-4693-AA72-88872CE388E7}">
+          <x14:cfRule type="dataBar" id="{fcff8b77-0730-46a8-af46-41ce152e7efd}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4318,7 +4770,7 @@
           <xm:sqref>G22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C3319B24-7326-4ED6-B6C3-0D9680095EF0}">
+          <x14:cfRule type="dataBar" id="{e41c33ee-e161-4ccd-908d-77dc20a2609c}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4330,7 +4782,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{FF7D44B7-96C1-4035-9507-D9F6F5657B48}">
+          <x14:cfRule type="dataBar" id="{efe226fc-ca06-4d2c-84ed-f5c88513a5be}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4342,7 +4794,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{21A74BF9-2F80-4557-9546-3ED3D53144E4}">
+          <x14:cfRule type="dataBar" id="{6a44da0f-295f-43fb-bd90-b857884a0063}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4350,7 +4802,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{D9FEEF06-7448-4438-A46D-62039FA99232}">
+          <x14:cfRule type="dataBar" id="{c7f2c172-6ace-408d-b039-ed0e5f5d0758}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4362,7 +4814,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{75B10F46-35B7-455F-A5FD-C605A675F0BF}">
+          <x14:cfRule type="dataBar" id="{190072ea-7ab6-451c-a9e4-8794d1b94e4a}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4375,7 +4827,7 @@
           <xm:sqref>O4:O23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{074C1BB0-DF92-47E6-A7C5-63B15983AC2B}">
+          <x14:cfRule type="dataBar" id="{5391289b-c161-4cd9-a4f5-326aa4c001ab}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4383,7 +4835,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{87E18A12-9370-4E94-B272-32F0CDF55288}">
+          <x14:cfRule type="dataBar" id="{2d673993-b3db-43ca-929f-d3f3dfbad737}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4395,7 +4847,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{68B526F6-5ABF-451E-B28C-43FF4CBF5912}">
+          <x14:cfRule type="dataBar" id="{f55fa198-fe63-473f-89f5-d8800aa2e7ab}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4405,7 +4857,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{65104BFB-C695-4B70-AFD2-054C9686684F}">
+          <x14:cfRule type="dataBar" id="{53bc61e5-e8e6-4a52-a122-2be6c3038d26}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4417,7 +4869,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{F0A15294-15CC-44F2-A075-4BE8662D0BD2}">
+          <x14:cfRule type="dataBar" id="{fba65199-6a3a-4ce2-9be7-10e174311ca7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4432,7 +4884,7 @@
           <xm:sqref>W16:W23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{74007BF8-8AEE-4F4D-96A2-D2BCB4748643}">
+          <x14:cfRule type="dataBar" id="{94af03fa-01c0-4f58-bc05-c8c2dde11690}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4444,7 +4896,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{6E561A46-331A-47B8-9B63-D0FA1FF63E9A}">
+          <x14:cfRule type="dataBar" id="{1a56772f-80e4-4d44-a1cc-f8dca24fde5f}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4454,7 +4906,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{D6875703-F31C-4B4E-BA95-61FD58CFB745}">
+          <x14:cfRule type="dataBar" id="{b483bc04-46bd-4312-931f-2a2698acfd64}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4466,7 +4918,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{0A5281AD-C37A-4708-93F3-95F24179C789}">
+          <x14:cfRule type="dataBar" id="{86253e53-8322-45bf-bf89-d5247af4a508}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4474,7 +4926,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{88190C69-58CB-49F9-AE70-8754715BF0C3}">
+          <x14:cfRule type="dataBar" id="{e6c0d04b-0195-4699-b2a1-8ff5f1f86765}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4489,7 +4941,7 @@
           <xm:sqref>AD4:AD23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9D78E0B9-5DDC-4F52-ACA2-7E1103E7150D}">
+          <x14:cfRule type="dataBar" id="{460a7445-59fd-488c-8452-0e7962e9079a}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4501,7 +4953,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{C9D79F0E-451B-4D64-8CDA-4CD91F49B3B5}">
+          <x14:cfRule type="dataBar" id="{c4f26a4e-6bbd-46a5-9d51-019ae1e7d709}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4513,7 +4965,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{C65CF563-328F-404F-8919-E81DC8A5AACD}">
+          <x14:cfRule type="dataBar" id="{f512f360-aa42-406f-b6a7-f34f8e2cd888}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4521,7 +4973,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8D348717-DAE1-49D2-B83B-983C7FFC2229}">
+          <x14:cfRule type="dataBar" id="{77255bd6-6e0d-43f8-8cb8-935a17ef355b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4533,7 +4985,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{52ED09AF-3466-4AAC-B6D6-BD51AE374274}">
+          <x14:cfRule type="dataBar" id="{7c797051-57d2-4b2f-823c-fc093c65c793}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4546,7 +4998,7 @@
           <xm:sqref>AG4:AG23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{66C90E05-440A-42C6-9665-1E0AEE86AEC4}">
+          <x14:cfRule type="dataBar" id="{ea82aadf-f4e0-4b2a-a8f7-0df3e71c3aa3}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4558,7 +5010,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{00111F70-5BE2-440F-956F-B4AB585EF4CC}">
+          <x14:cfRule type="dataBar" id="{e4e35fa2-71ea-488d-96b1-2d9f4aba372a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4570,7 +5022,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{7473D8CB-FFD3-47B0-B503-1079AF44C340}">
+          <x14:cfRule type="dataBar" id="{170ead70-1072-40d1-b4ef-f7bdec894796}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4578,7 +5030,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{B1A36951-AD34-4634-8ED5-A1647F7528AE}">
+          <x14:cfRule type="dataBar" id="{f417d11a-fbc4-4b3f-8b17-de741b8d9f76}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4590,7 +5042,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{EEC34FB0-4DEC-4E08-B7BE-1B38CFA8B71E}">
+          <x14:cfRule type="dataBar" id="{e1123254-0c9f-4851-a45b-60b11604cf83}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4602,6 +5054,63 @@
           </x14:cfRule>
           <xm:sqref>AH4:AH23</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{d72bd047-80cf-4104-b50f-8cf82d04b8d0}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{48cf2667-7efd-45ae-b90d-26537269d245}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{4fcb6635-f27c-4dae-807a-63bdd84649b8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{32ee3821-10bd-451a-b8a5-fd977997b603}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{d7eb1521-4bb5-4e61-b62d-d502266642ba}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G4:G21 G23</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
